--- a/biology/Zoologie/Gomphidae/Gomphidae.xlsx
+++ b/biology/Zoologie/Gomphidae/Gomphidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Gomphidae ou Gomphidés fait partie des Anisoptères, dans l'ordre des Odonates. Il s'agit d'une famille qui a conservé des caractéristiques ancestrales comme l'espacement entre les yeux au-dessus de la tête et une asymétrie au niveau de leur thorax. Ces libellules possèdent aussi des caractéristiques distinctes évolutives comme un ovipositeur réduit à une paire minuscule de lamelle[1]. Cette famille contient 95 genres avec près de 1000 espèces[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Gomphidae ou Gomphidés fait partie des Anisoptères, dans l'ordre des Odonates. Il s'agit d'une famille qui a conservé des caractéristiques ancestrales comme l'espacement entre les yeux au-dessus de la tête et une asymétrie au niveau de leur thorax. Ces libellules possèdent aussi des caractéristiques distinctes évolutives comme un ovipositeur réduit à une paire minuscule de lamelle. Cette famille contient 95 genres avec près de 1000 espèces.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gomphidae ont généralement des ailes sans tache et transparentes. Les triangles des ailes antérieures et postérieures sont placés à égale distance de l'arculus et orientés vers l'apex de l'aile[3]. Les yeux sont séparés au-dessus de la tête.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gomphidae ont généralement des ailes sans tache et transparentes. Les triangles des ailes antérieures et postérieures sont placés à égale distance de l'arculus et orientés vers l'apex de l'aile. Les yeux sont séparés au-dessus de la tête.
 			Ailes de Gomphidae
 			Yeux séparés de Gomphidae
 </t>
@@ -544,7 +558,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acrogomphus Laidlaw, 1925
